--- a/testing/rpm_measure_1/rpm_measure_1_test.xlsx
+++ b/testing/rpm_measure_1/rpm_measure_1_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\current courses\capstone\ToolCart\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\current courses\capstone\ToolCart\testing\rpm_measure_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/testing/rpm_measure_1/rpm_measure_1_test.xlsx
+++ b/testing/rpm_measure_1/rpm_measure_1_test.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Test #</t>
   </si>
   <si>
-    <t>Load</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -47,13 +44,40 @@
     <t>RPM_L (laser)</t>
   </si>
   <si>
-    <t xml:space="preserve">File (R) </t>
-  </si>
-  <si>
     <t>V_in</t>
   </si>
   <si>
-    <t>File(L)</t>
+    <t>1V</t>
+  </si>
+  <si>
+    <t>1.5V</t>
+  </si>
+  <si>
+    <t>Noise (L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noise (R) </t>
+  </si>
+  <si>
+    <t>File\</t>
+  </si>
+  <si>
+    <t>2V</t>
+  </si>
+  <si>
+    <t>2.5V</t>
+  </si>
+  <si>
+    <t>3V</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>4V</t>
+  </si>
+  <si>
+    <t>262-266</t>
   </si>
 </sst>
 </file>
@@ -95,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -108,34 +132,6 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -171,11 +167,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,38 +277,65 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,32 +617,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="7" customWidth="1"/>
-    <col min="2" max="2" width="3" style="8" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3" style="5" customWidth="1"/>
+    <col min="2" max="2" width="3" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="5" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -543,15 +658,15 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -559,248 +674,392 @@
       <c r="M2" s="2"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>7</v>
+      <c r="L3" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
+    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="17">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="17">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="20">
+        <v>65</v>
+      </c>
+      <c r="F5" s="20">
+        <v>63.5</v>
+      </c>
+      <c r="G5" s="18">
+        <v>45</v>
+      </c>
+      <c r="H5" s="19">
+        <v>45</v>
+      </c>
+      <c r="I5" s="8">
+        <v>7.81</v>
+      </c>
+      <c r="J5" s="8">
+        <v>5.21</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="P5" s="2">
+        <v>32</v>
+      </c>
+      <c r="R5" s="2">
+        <f>12*P5/255</f>
+        <v>1.5058823529411764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="17">
+        <v>3</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="18">
+        <v>130</v>
+      </c>
+      <c r="F6" s="18">
+        <v>128.5</v>
+      </c>
+      <c r="G6" s="18">
+        <v>111</v>
+      </c>
+      <c r="H6" s="19">
+        <v>110.4</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2.61</v>
+      </c>
+      <c r="J6" s="8">
+        <v>5.21</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="P6" s="2">
+        <v>43</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" ref="R6:R11" si="0">12*P6/255</f>
+        <v>2.0235294117647058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="17">
+        <v>4</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="18">
+        <v>180</v>
+      </c>
+      <c r="F7" s="18">
+        <v>180</v>
+      </c>
+      <c r="G7" s="18">
+        <v>159</v>
+      </c>
+      <c r="H7" s="19">
+        <v>158.6</v>
+      </c>
+      <c r="I7" s="8">
+        <v>5.21</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="P7" s="2">
+        <v>53</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4941176470588236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="17">
+        <v>5</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="18">
+        <v>226</v>
+      </c>
+      <c r="F8" s="18">
+        <v>218</v>
+      </c>
+      <c r="G8" s="18">
+        <v>197</v>
+      </c>
+      <c r="H8" s="19">
+        <v>199</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="P8" s="2">
+        <v>63</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9647058823529413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="21">
+        <v>6</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="24">
+        <v>250</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="P9" s="2">
+        <v>64</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0117647058823529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="P10" s="2">
+        <v>90</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2352941176470589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="P11" s="2">
+        <v>85</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="22" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="14"/>
+      <c r="D22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>